--- a/galaga/Book1.xlsx
+++ b/galaga/Book1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="107">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -536,13 +536,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　点滅</t>
-    <rPh sb="1" eb="3">
-      <t>テンメツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　フォント配置</t>
     <rPh sb="5" eb="7">
       <t>ハイチ</t>
@@ -565,6 +558,176 @@
   </si>
   <si>
     <t>リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　設計(完了)</t>
+    <rPh sb="1" eb="3">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　点滅(完了)</t>
+    <rPh sb="1" eb="3">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　表示</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　フォント配置</t>
+    <rPh sb="5" eb="7">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洋介</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　当たり判定</t>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　デュアルファイター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　アニメーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　キャプチャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　撃墜</t>
+    <rPh sb="2" eb="4">
+      <t>ゲキツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　弾の発射</t>
+    <rPh sb="1" eb="2">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　移動の再現(ベジエの連結)</t>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>レンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　攻撃</t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　アニメーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　移動</t>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　ダメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音付け</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　エネミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇賀地</t>
+    <rPh sb="0" eb="3">
+      <t>ウガチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮原</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤハラ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -597,7 +760,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -652,8 +815,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -661,14 +842,193 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal style="thin">
         <color auto="1"/>
       </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -676,45 +1036,111 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,6 +1157,119 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="右矢印 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1889760" y="2575560"/>
+          <a:ext cx="632460" cy="83820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="右矢印 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1897380" y="3505200"/>
+          <a:ext cx="632460" cy="83820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -996,10 +1535,1410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+    </row>
+    <row r="2" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+    </row>
+    <row r="5" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="24"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="24"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+    </row>
+    <row r="19" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="24"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+    </row>
+    <row r="20" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+    </row>
+    <row r="24" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+    </row>
+    <row r="25" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="24"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+    </row>
+    <row r="29" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+    </row>
+    <row r="30" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+    </row>
+    <row r="31" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+    </row>
+    <row r="32" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+    </row>
+    <row r="33" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+    </row>
+    <row r="34" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+    </row>
+    <row r="35" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="24"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+    </row>
+    <row r="36" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+    </row>
+    <row r="37" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+    </row>
+    <row r="38" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+    </row>
+    <row r="39" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+    </row>
+    <row r="40" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="24"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+    </row>
+    <row r="41" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+    </row>
+    <row r="42" spans="1:26" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:Z1"/>
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG42"/>
+  <sheetViews>
+    <sheetView zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1007,543 +2946,1658 @@
     <col min="1" max="1" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="1" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+    </row>
+    <row r="2" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="J3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="K3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="M3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="N3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="O3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="Q3" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="R3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="S3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="T3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="U3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="V3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="W3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="X3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="Y3" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="Z3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="AA3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AB3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AC3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AD3" s="14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="AE3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG3" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="25" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+    </row>
+    <row r="5" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+    </row>
+    <row r="6" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+    </row>
+    <row r="7" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+    </row>
+    <row r="8" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+    </row>
+    <row r="9" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+    </row>
+    <row r="10" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="24"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+    </row>
+    <row r="11" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+    </row>
+    <row r="12" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+    </row>
+    <row r="13" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+    </row>
+    <row r="14" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="24"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+    </row>
+    <row r="15" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="B15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+    </row>
+    <row r="16" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="24" t="s">
         <v>81</v>
       </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:Z1"/>
-    <mergeCell ref="A1:B3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG4"/>
-  <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="15.69921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="R3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S3" t="s">
-        <v>66</v>
-      </c>
-      <c r="T3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="V3" t="s">
-        <v>62</v>
-      </c>
-      <c r="W3" t="s">
-        <v>63</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="B16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+    </row>
+    <row r="17" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+    </row>
+    <row r="18" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+    </row>
+    <row r="19" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="24"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+    </row>
+    <row r="20" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+    </row>
+    <row r="21" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+    </row>
+    <row r="22" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+    </row>
+    <row r="23" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+    </row>
+    <row r="24" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+    </row>
+    <row r="25" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+    </row>
+    <row r="26" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="24"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+    </row>
+    <row r="27" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+    </row>
+    <row r="28" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+    </row>
+    <row r="29" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+    </row>
+    <row r="30" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+    </row>
+    <row r="31" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+    </row>
+    <row r="32" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+    </row>
+    <row r="33" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+    </row>
+    <row r="34" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+    </row>
+    <row r="35" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="24"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+    </row>
+    <row r="36" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+    </row>
+    <row r="37" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+    </row>
+    <row r="38" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+    </row>
+    <row r="39" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+    </row>
+    <row r="40" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="24"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+    </row>
+    <row r="41" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+    </row>
+    <row r="42" spans="1:33" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:AG1"/>
@@ -1556,256 +4610,1708 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="A10" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.796875" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+    </row>
+    <row r="2" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AF2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" t="s">
+    <row r="3" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
+      <c r="C4" s="27"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+    </row>
+    <row r="5" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+    </row>
+    <row r="6" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+    </row>
+    <row r="7" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+    </row>
+    <row r="8" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+    </row>
+    <row r="9" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+    </row>
+    <row r="10" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="24"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+    </row>
+    <row r="11" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+    </row>
+    <row r="12" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+    </row>
+    <row r="13" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+    </row>
+    <row r="14" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="24"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+    </row>
+    <row r="15" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+    </row>
+    <row r="16" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+    </row>
+    <row r="17" spans="1:35" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+    </row>
+    <row r="18" spans="1:35" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+    </row>
+    <row r="19" spans="1:35" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="24"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+    </row>
+    <row r="20" spans="1:35" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+    </row>
+    <row r="21" spans="1:35" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+    </row>
+    <row r="22" spans="1:35" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+    </row>
+    <row r="23" spans="1:35" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+    </row>
+    <row r="24" spans="1:35" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AI24" s="6"/>
+    </row>
+    <row r="25" spans="1:35" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+    </row>
+    <row r="26" spans="1:35" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="24"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+    </row>
+    <row r="27" spans="1:35" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+    </row>
+    <row r="28" spans="1:35" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+    </row>
+    <row r="29" spans="1:35" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+    </row>
+    <row r="30" spans="1:35" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+    </row>
+    <row r="31" spans="1:35" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+    </row>
+    <row r="32" spans="1:35" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+    </row>
+    <row r="33" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+    </row>
+    <row r="34" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+    </row>
+    <row r="35" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="24"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+    </row>
+    <row r="36" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+    </row>
+    <row r="37" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+    </row>
+    <row r="38" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+    </row>
+    <row r="39" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+    </row>
+    <row r="40" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="24"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+    </row>
+    <row r="41" spans="1:33" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+    </row>
+    <row r="42" spans="1:33" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:AG1"/>

--- a/galaga/Book1.xlsx
+++ b/galaga/Book1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="112">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -761,6 +761,16 @@
     <t>梶谷</t>
     <rPh sb="0" eb="2">
       <t>カジタニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　フォント配置(完了)</t>
+    <rPh sb="5" eb="7">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1155,6 +1165,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1175,9 +1188,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,10 +1324,10 @@
       <xdr:rowOff>78166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>663676</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12290</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>184355</xdr:rowOff>
+      <xdr:rowOff>196646</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1327,7 +1337,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2793097" y="2990972"/>
-          <a:ext cx="3352063" cy="106189"/>
+          <a:ext cx="4728580" cy="118480"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1530,8 +1540,8 @@
       <xdr:rowOff>58501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12291</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>639096</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>172065</xdr:rowOff>
     </xdr:to>
@@ -1543,7 +1553,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4149949" y="6658404"/>
-          <a:ext cx="2695761" cy="113564"/>
+          <a:ext cx="5350470" cy="113564"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1584,10 +1594,10 @@
       <xdr:rowOff>75706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>577645</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12291</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>221225</xdr:rowOff>
+      <xdr:rowOff>184355</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1597,7 +1607,61 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6858737" y="8887867"/>
-          <a:ext cx="3932166" cy="145519"/>
+          <a:ext cx="2690844" cy="108649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25318</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>648928</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>194186</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="右矢印 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858737" y="5176192"/>
+          <a:ext cx="2651514" cy="143059"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1898,48 +1962,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="16" max="16" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
@@ -2014,8 +2079,8 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="29"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="14" t="s">
         <v>61</v>
       </c>
@@ -2136,11 +2201,11 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2232,11 +2297,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2264,11 +2329,11 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2375,7 +2440,7 @@
     </row>
     <row r="13" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>79</v>
@@ -2451,10 +2516,10 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2515,10 +2580,10 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2547,10 +2612,10 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2671,10 +2736,10 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -2702,11 +2767,11 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
@@ -2738,7 +2803,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
@@ -2766,11 +2831,11 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -3100,7 +3165,7 @@
       <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="35"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -3132,7 +3197,7 @@
       <c r="B37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="35"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -3143,10 +3208,10 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -3308,45 +3373,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
     </row>
     <row r="2" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="13" t="s">
         <v>27</v>
       </c>
@@ -3442,8 +3507,8 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="29"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="13" t="s">
         <v>68</v>
       </c>
@@ -4983,45 +5048,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
     </row>
     <row r="2" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="13" t="s">
         <v>27</v>
       </c>
@@ -5117,8 +5182,8 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="29"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="13" t="s">
         <v>69</v>
       </c>

--- a/galaga/Book1.xlsx
+++ b/galaga/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17568" windowHeight="8760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17568" windowHeight="8760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="1" r:id="rId1"/>
@@ -1962,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2206,8 +2206,8 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -2302,8 +2302,8 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -2334,8 +2334,8 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -2520,15 +2520,15 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
@@ -2579,20 +2579,20 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="18" t="s">
@@ -2611,20 +2611,20 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="18"/>
@@ -3363,8 +3363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG42"/>
   <sheetViews>
-    <sheetView zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="X36" sqref="C36:X36"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4031,18 +4031,18 @@
       <c r="B15" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -4109,18 +4109,18 @@
       <c r="B17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -4148,18 +4148,18 @@
       <c r="B18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -4368,18 +4368,18 @@
         <v>91</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -4867,10 +4867,10 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
